--- a/docs/画面項目定義書/instance_type_management/mo_instance_type_add.xlsx
+++ b/docs/画面項目定義書/instance_type_management/mo_instance_type_add.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\instance_type_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF09C23-5BD6-4175-AF7E-F30662EC2C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF5226-F2AA-4DBF-A531-BF69A73E8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>日本工学院</t>
   </si>
@@ -102,17 +102,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インスタンスタイプダッシュボードへ遷移</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インスタンスタイプを追加/インスタンスタイプダッシュボードへ遷移</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力覧タイトル「インスタンスタイプ名」</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクラン</t>
@@ -223,6 +212,18 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_instance_type_add.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>instance_type_dashboard.htmlへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_instance_type_add.html/instance_type_dashboard.htmlへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1076,19 +1077,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="5" max="5" width="26.1328125" customWidth="1"/>
+    <col min="6" max="6" width="40.86328125" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1108,7 +1111,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1117,7 +1120,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1126,7 +1129,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13.25">
       <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
@@ -1139,18 +1142,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="37"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1159,7 +1164,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1198,7 +1203,7 @@
       </c>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:7" ht="24">
+    <row r="10" spans="1:7" ht="24.5">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -1214,10 +1219,10 @@
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1233,144 +1238,144 @@
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="25">
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="24">
+    <row r="13" spans="1:7" ht="24.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="24"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5">
+    <row r="14" spans="1:7" ht="13.25">
       <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" ht="24">
+    <row r="15" spans="1:7" ht="24.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="13.25">
       <c r="A16" s="25">
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="1:7" ht="24">
+    <row r="17" spans="1:7" ht="24.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" ht="13.5">
+    <row r="18" spans="1:7" ht="13.25">
       <c r="A18" s="25">
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" ht="24">
+    <row r="19" spans="1:7" ht="24.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="13.25">
       <c r="A20" s="25">
         <v>12</v>
       </c>
@@ -1381,7 +1386,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="13.25">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1392,7 +1397,7 @@
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13.25">
       <c r="A22" s="25">
         <v>14</v>
       </c>
@@ -1403,7 +1408,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13.25">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1414,21 +1419,21 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13.25">
       <c r="A24" s="25">
         <v>16</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13.25">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13.25">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1437,7 +1442,7 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13.25">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -1446,7 +1451,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13.25">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1455,7 +1460,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
